--- a/medicine/Psychotrope/Colli_Orientali_del_Friuli/Colli_Orientali_del_Friuli.xlsx
+++ b/medicine/Psychotrope/Colli_Orientali_del_Friuli/Colli_Orientali_del_Friuli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Colli Orientali del Friuli est un vignoble italien de la région Frioul-Vénétie Julienne doté d'une appellation DOC depuis le 20 juillet 1970.
 Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -512,7 +524,9 @@
           <t>Aire de l'appellation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les 2300 hectares de vignobles autorisés se situent au nord - est de la province d'Udine dans les communes de Tarcento, Nimis, Faedis, Povoletto, Attimis, Torreano, San Pietro al Natisone, Prepotto, Premariacco, Buttrio, Manzano, San Giovanni al Natisone et Corno di Rosazzo.
 Les vignobles voisins sont Lison Pramaggiore, Friuli Isonzo, Collio Goriziano, Friuli Latisana, Friuli Annia, Friuli Aquileia et Friuli Grave
@@ -544,7 +558,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les cépages les plus importants sont :
 Chardonnay,
@@ -593,7 +609,9 @@
           <t>Vins, appellations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sous l’appellation, les vins suivants sont autorisés :
 Colli Orientali del Friuli Cabernet
